--- a/Data/WorkGroups.xlsx
+++ b/Data/WorkGroups.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Documents\Repos\ResearchAndDevelopment\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D0DB01-14B8-4165-A947-8228D1409D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B16F887-0058-4288-9678-B640D356E16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="86400" yWindow="0" windowWidth="28800" windowHeight="31800" xr2:uid="{2BA28654-6A98-4DB4-8A9B-DED43C7332B6}"/>
+    <workbookView xWindow="76665" yWindow="3630" windowWidth="43200" windowHeight="23340" activeTab="4" xr2:uid="{2BA28654-6A98-4DB4-8A9B-DED43C7332B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Xilinx Zynq UltraScale+ (ZCU104" sheetId="1" r:id="rId1"/>
     <sheet name="Nvidia RTX 3060 (Laptop)" sheetId="2" r:id="rId2"/>
     <sheet name="Intel Core i7-11800H (2.30GHz)" sheetId="3" r:id="rId3"/>
+    <sheet name="Nvidia GTX 1050 (Laptop)" sheetId="4" r:id="rId4"/>
+    <sheet name="Intel Core i7-8750H (2.20GHz)" sheetId="5" r:id="rId5"/>
+    <sheet name="Intel UHD Graphics 630" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>Xilinx Zynq UltraScale+ (ZCU104)</t>
   </si>
@@ -56,6 +59,15 @@
   </si>
   <si>
     <t>Work items/Work group</t>
+  </si>
+  <si>
+    <t>Nvidia GTX 1050 (Laptop)</t>
+  </si>
+  <si>
+    <t>Intel Core i7-8750H (2.20GHz)</t>
+  </si>
+  <si>
+    <t>Intel UHD Graphics 630</t>
   </si>
 </sst>
 </file>
@@ -210,6 +222,14 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -219,15 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52237165-0FC1-4FEC-82CD-11A6CAB278E5}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -556,249 +568,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <f>16384*2*2*2*2</f>
         <v>262144</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3">
         <v>32658258906</v>
       </c>
-      <c r="C3" s="9">
-        <f>B3/1000000</f>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C21" si="0">B3/1000000</f>
         <v>32658.258905999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>131072</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>16434297087</v>
       </c>
-      <c r="C4" s="9">
-        <f>B4/1000000</f>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
         <v>16434.297086999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>131072</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>16434207064</v>
       </c>
-      <c r="C5" s="9">
-        <f>B5/1000000</f>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
         <v>16434.207063999998</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
         <v>65536</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>14643052454</v>
       </c>
-      <c r="C6" s="9">
-        <f>B6/1000000</f>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
         <v>14643.052454000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>32768</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>8984052098</v>
       </c>
-      <c r="C7" s="9">
-        <f>B7/1000000</f>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
         <v>8984.0520980000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+      <c r="A8" s="4">
         <v>16384</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>4851864870</v>
       </c>
-      <c r="C8" s="9">
-        <f>B8/1000000</f>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
         <v>4851.8648700000003</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>8192</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>2516807980</v>
       </c>
-      <c r="C9" s="9">
-        <f>B9/1000000</f>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
         <v>2516.80798</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+      <c r="A10" s="4">
         <v>4096</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>1305892930</v>
       </c>
-      <c r="C10" s="9">
-        <f>B10/1000000</f>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
         <v>1305.89293</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
         <v>2048</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>1275098710</v>
       </c>
-      <c r="C11" s="9">
-        <f>B11/1000000</f>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
         <v>1275.09871</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
         <v>1024</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12">
         <v>1094572480</v>
       </c>
-      <c r="C12" s="9">
-        <f>B12/1000000</f>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
         <v>1094.57248</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
+      <c r="A13" s="4">
         <v>512</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <v>1078564665</v>
       </c>
-      <c r="C13" s="9">
-        <f>B13/1000000</f>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
         <v>1078.5646650000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
+      <c r="A14" s="4">
         <v>256</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14">
         <v>1762500392</v>
       </c>
-      <c r="C14" s="9">
-        <f>B14/1000000</f>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
         <v>1762.5003919999999</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
+      <c r="A15" s="4">
         <v>128</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15">
         <v>1762117883</v>
       </c>
-      <c r="C15" s="9">
-        <f>B15/1000000</f>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
         <v>1762.1178829999999</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+      <c r="A16" s="4">
         <v>64</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16">
         <v>2350944808</v>
       </c>
-      <c r="C16" s="9">
-        <f>B16/1000000</f>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
         <v>2350.9448080000002</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
+      <c r="A17" s="4">
         <v>32</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17">
         <v>2643894988</v>
       </c>
-      <c r="C17" s="9">
-        <f>B17/1000000</f>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
         <v>2643.894988</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18">
         <v>2917280591</v>
       </c>
-      <c r="C18" s="9">
-        <f>B18/1000000</f>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
         <v>2917.2805910000002</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="7">
+      <c r="A19" s="4">
         <v>8</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19">
         <v>1769149058</v>
       </c>
-      <c r="C19" s="9">
-        <f>B19/1000000</f>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
         <v>1769.149058</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="7">
+      <c r="A20" s="4">
         <v>8</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20">
         <v>1722529411</v>
       </c>
-      <c r="C20" s="9">
-        <f>B20/1000000</f>
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
         <v>1722.529411</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="10">
+      <c r="A21" s="6">
         <v>8</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="7">
         <v>1731376340</v>
       </c>
-      <c r="C21" s="12">
-        <f>B21/1000000</f>
+      <c r="C21" s="8">
+        <f t="shared" si="0"/>
         <v>1731.37634</v>
       </c>
     </row>
@@ -822,152 +834,152 @@
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>1024</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3">
         <v>1985536</v>
       </c>
-      <c r="C3" s="9">
-        <f>B3/1000000</f>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C13" si="0">B3/1000000</f>
         <v>1.985536</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>512</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>1688576</v>
       </c>
-      <c r="C4" s="9">
-        <f>B4/1000000</f>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
         <v>1.6885760000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>256</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>1567648</v>
       </c>
-      <c r="C5" s="9">
-        <f>B5/1000000</f>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
         <v>1.5676479999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
         <v>128</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>1689600</v>
       </c>
-      <c r="C6" s="9">
-        <f>B6/1000000</f>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
         <v>1.6896</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>64</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>1760256</v>
       </c>
-      <c r="C7" s="9">
-        <f>B7/1000000</f>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
         <v>1.760256</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+      <c r="A8" s="4">
         <v>32</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>1946624</v>
       </c>
-      <c r="C8" s="9">
-        <f>B8/1000000</f>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
         <v>1.9466239999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>16</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>3549184</v>
       </c>
-      <c r="C9" s="9">
-        <f>B9/1000000</f>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
         <v>3.5491839999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>6168576</v>
       </c>
-      <c r="C10" s="9">
-        <f>B10/1000000</f>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
         <v>6.1685759999999998</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>11681792</v>
       </c>
-      <c r="C11" s="9">
-        <f>B11/1000000</f>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
         <v>11.681792</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12">
         <v>23165952</v>
       </c>
-      <c r="C12" s="9">
-        <f>B12/1000000</f>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
         <v>23.165952000000001</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="10">
+      <c r="A13" s="6">
         <v>1</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="7">
         <v>46697472</v>
       </c>
-      <c r="C13" s="12">
-        <f>B13/1000000</f>
+      <c r="C13" s="8">
+        <f t="shared" si="0"/>
         <v>46.697471999999998</v>
       </c>
     </row>
@@ -984,7 +996,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="C16" sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -993,190 +1005,746 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>8192</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3">
         <v>13690800</v>
       </c>
-      <c r="C3" s="9">
-        <f>B3/1000000</f>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C16" si="0">B3/1000000</f>
         <v>13.690799999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>4096</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>13911400</v>
       </c>
-      <c r="C4" s="9">
-        <f>B4/1000000</f>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
         <v>13.9114</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>2048</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>10362600</v>
       </c>
-      <c r="C5" s="9">
-        <f>B5/1000000</f>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
         <v>10.3626</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
         <v>1024</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>9563700</v>
       </c>
-      <c r="C6" s="9">
-        <f>B6/1000000</f>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
         <v>9.5637000000000008</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>512</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>10268400</v>
       </c>
-      <c r="C7" s="9">
-        <f>B7/1000000</f>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
         <v>10.2684</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+      <c r="A8" s="4">
         <v>256</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>9199900</v>
       </c>
-      <c r="C8" s="9">
-        <f>B8/1000000</f>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
         <v>9.1998999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>128</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>9940400</v>
       </c>
-      <c r="C9" s="9">
-        <f>B9/1000000</f>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
         <v>9.9404000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+      <c r="A10" s="4">
         <v>64</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>9665900</v>
       </c>
-      <c r="C10" s="9">
-        <f>B10/1000000</f>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
         <v>9.6659000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
         <v>32</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>11526300</v>
       </c>
-      <c r="C11" s="9">
-        <f>B11/1000000</f>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
         <v>11.526300000000001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12">
         <v>11203500</v>
       </c>
-      <c r="C12" s="9">
-        <f>B12/1000000</f>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
         <v>11.2035</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
+      <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <v>88712600</v>
       </c>
-      <c r="C13" s="9">
-        <f>B13/1000000</f>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
         <v>88.712599999999995</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
+      <c r="A14" s="4">
         <v>4</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14">
         <v>94893300</v>
       </c>
-      <c r="C14" s="9">
-        <f>B14/1000000</f>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
         <v>94.893299999999996</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
+      <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15">
         <v>92699000</v>
       </c>
-      <c r="C15" s="9">
-        <f>B15/1000000</f>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
         <v>92.698999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="10">
+      <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="7">
         <v>109286300</v>
       </c>
-      <c r="C16" s="12">
-        <f>B16/1000000</f>
+      <c r="C16" s="8">
+        <f t="shared" si="0"/>
         <v>109.2863</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC95609-F67B-4594-98F8-A14E88C480B6}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>196666368</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C16" si="0">B3/1000000</f>
+        <v>196.66636800000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>99864576</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>99.864576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>51349504</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>51.349504000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
+        <v>8</v>
+      </c>
+      <c r="B6" s="12">
+        <v>26800128</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>26.800128000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
+        <v>16</v>
+      </c>
+      <c r="B7" s="12">
+        <v>14406656</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>14.406656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
+        <v>32</v>
+      </c>
+      <c r="B8" s="12">
+        <v>8115200</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>8.1151999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
+        <v>64</v>
+      </c>
+      <c r="B9" s="12">
+        <v>8292256</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>8.2922560000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
+        <v>128</v>
+      </c>
+      <c r="B10" s="12">
+        <v>7934912</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>7.9349119999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="4">
+        <v>256</v>
+      </c>
+      <c r="B11" s="12">
+        <v>7858880</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>7.8588800000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="4">
+        <v>512</v>
+      </c>
+      <c r="B12" s="12">
+        <v>8005632</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>8.0056320000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="6">
+        <v>1024</v>
+      </c>
+      <c r="B13" s="7">
+        <v>9196544</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="0"/>
+        <v>9.1965439999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6890EA-7ADB-45A9-995D-698702C32A08}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>283321300</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C16" si="0">B3/1000000</f>
+        <v>283.32130000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>60232900</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>60.232900000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>55512400</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>55.5124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
+        <v>8</v>
+      </c>
+      <c r="B6" s="12">
+        <v>62290400</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>62.290399999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
+        <v>16</v>
+      </c>
+      <c r="B7" s="12">
+        <v>61323000</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>61.323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
+        <v>32</v>
+      </c>
+      <c r="B8" s="12">
+        <v>56893500</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>56.893500000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
+        <v>64</v>
+      </c>
+      <c r="B9" s="12">
+        <v>61801600</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>61.801600000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
+        <v>128</v>
+      </c>
+      <c r="B10" s="12">
+        <v>56696300</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>56.696300000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="4">
+        <v>256</v>
+      </c>
+      <c r="B11" s="12">
+        <v>60720400</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>60.720399999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="4">
+        <v>512</v>
+      </c>
+      <c r="B12" s="12">
+        <v>56412100</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>56.412100000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="4">
+        <v>1024</v>
+      </c>
+      <c r="B13" s="12">
+        <v>60637400</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>60.6374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="4">
+        <v>2048</v>
+      </c>
+      <c r="B14" s="12">
+        <v>60195400</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>60.195399999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
+        <v>4096</v>
+      </c>
+      <c r="B15" s="12">
+        <v>63756400</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>63.756399999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="6">
+        <v>8192</v>
+      </c>
+      <c r="B16" s="7">
+        <v>67401300</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="0"/>
+        <v>67.401300000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FADFD0-0DD5-4CD2-82AA-05F2D179E27B}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q57" sqref="Q57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>455514916</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C16" si="0">B3/1000000</f>
+        <v>455.51491600000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>218381500</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>218.38149999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>104174416</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>104.17441599999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
+        <v>8</v>
+      </c>
+      <c r="B6" s="12">
+        <v>57829916</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>57.829915999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
+        <v>16</v>
+      </c>
+      <c r="B7" s="12">
+        <v>41624083</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>41.624082999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
+        <v>32</v>
+      </c>
+      <c r="B8" s="12">
+        <v>41606000</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>41.606000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
+        <v>64</v>
+      </c>
+      <c r="B9" s="12">
+        <v>44916583</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>44.916583000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
+        <v>128</v>
+      </c>
+      <c r="B10" s="12">
+        <v>43037583</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>43.037582999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="6">
+        <v>256</v>
+      </c>
+      <c r="B11" s="7">
+        <v>43720750</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>43.720750000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Data/WorkGroups.xlsx
+++ b/Data/WorkGroups.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Documents\Repos\ResearchAndDevelopment\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drago\source\repos\psychic-system\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B16F887-0058-4288-9678-B640D356E16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE2BCFC-31BA-4D7A-98CA-3058074F400A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76665" yWindow="3630" windowWidth="43200" windowHeight="23340" activeTab="4" xr2:uid="{2BA28654-6A98-4DB4-8A9B-DED43C7332B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="8" xr2:uid="{2BA28654-6A98-4DB4-8A9B-DED43C7332B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Xilinx Zynq UltraScale+ (ZCU104" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,11 @@
     <sheet name="Intel Core i7-11800H (2.30GHz)" sheetId="3" r:id="rId3"/>
     <sheet name="Nvidia GTX 1050 (Laptop)" sheetId="4" r:id="rId4"/>
     <sheet name="Intel Core i7-8750H (2.20GHz)" sheetId="5" r:id="rId5"/>
-    <sheet name="Intel UHD Graphics 630" sheetId="6" r:id="rId6"/>
+    <sheet name="NVIDIA Volta arch with " sheetId="7" r:id="rId6"/>
+    <sheet name="8-core NVIDIA Carmel Armv8.2 64" sheetId="8" r:id="rId7"/>
+    <sheet name="XeonE3-1245 4-core 3.40GHz" sheetId="9" r:id="rId8"/>
+    <sheet name="NVIDIA Quadro K600" sheetId="10" r:id="rId9"/>
+    <sheet name="Intel UHD Graphics 630" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>Xilinx Zynq UltraScale+ (ZCU104)</t>
   </si>
@@ -68,6 +72,18 @@
   </si>
   <si>
     <t>Intel UHD Graphics 630</t>
+  </si>
+  <si>
+    <t>8-core NVIDIA Carmel Armv8.2 64-bit CPU</t>
+  </si>
+  <si>
+    <t>NVIDIA Volta arch with 512 NVIDIA CUDA cores and 64 Tensor cores</t>
+  </si>
+  <si>
+    <t>XeonE3-1245 4-core 3.40GHz</t>
+  </si>
+  <si>
+    <t>NVIDIA Quadro K600</t>
   </si>
 </sst>
 </file>
@@ -220,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -239,7 +255,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,21 +575,21 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.61328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.84375" customWidth="1"/>
-    <col min="3" max="3" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -585,7 +600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f>16384*2*2*2*2</f>
         <v>262144</v>
@@ -598,7 +613,7 @@
         <v>32658.258905999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>131072</v>
       </c>
@@ -610,7 +625,7 @@
         <v>16434.297086999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>131072</v>
       </c>
@@ -622,7 +637,7 @@
         <v>16434.207063999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>65536</v>
       </c>
@@ -634,7 +649,7 @@
         <v>14643.052454000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>32768</v>
       </c>
@@ -646,7 +661,7 @@
         <v>8984.0520980000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>16384</v>
       </c>
@@ -658,7 +673,7 @@
         <v>4851.8648700000003</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8192</v>
       </c>
@@ -670,7 +685,7 @@
         <v>2516.80798</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>4096</v>
       </c>
@@ -682,7 +697,7 @@
         <v>1305.89293</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2048</v>
       </c>
@@ -694,7 +709,7 @@
         <v>1275.09871</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1024</v>
       </c>
@@ -706,7 +721,7 @@
         <v>1094.57248</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>512</v>
       </c>
@@ -718,7 +733,7 @@
         <v>1078.5646650000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>256</v>
       </c>
@@ -730,7 +745,7 @@
         <v>1762.5003919999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>128</v>
       </c>
@@ -742,7 +757,7 @@
         <v>1762.1178829999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>64</v>
       </c>
@@ -754,7 +769,7 @@
         <v>2350.9448080000002</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>32</v>
       </c>
@@ -766,7 +781,7 @@
         <v>2643.894988</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -778,7 +793,7 @@
         <v>2917.2805910000002</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>8</v>
       </c>
@@ -790,7 +805,7 @@
         <v>1769.149058</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>8</v>
       </c>
@@ -802,7 +817,7 @@
         <v>1722.529411</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>8</v>
       </c>
@@ -820,6 +835,150 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FADFD0-0DD5-4CD2-82AA-05F2D179E27B}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q57" sqref="Q57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>455514916</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C11" si="0">B3/1000000</f>
+        <v>455.51491600000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>218381500</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>218.38149999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>104174416</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>104.17441599999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>57829916</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>57.829915999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>41624083</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>41.624082999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>41606000</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>41.606000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>44916583</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>44.916583000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>128</v>
+      </c>
+      <c r="B10">
+        <v>43037583</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>43.037582999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>256</v>
+      </c>
+      <c r="B11" s="7">
+        <v>43720750</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>43.720750000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -831,16 +990,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -851,7 +1010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1024</v>
       </c>
@@ -863,7 +1022,7 @@
         <v>1.985536</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>512</v>
       </c>
@@ -875,7 +1034,7 @@
         <v>1.6885760000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>256</v>
       </c>
@@ -887,7 +1046,7 @@
         <v>1.5676479999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>128</v>
       </c>
@@ -899,7 +1058,7 @@
         <v>1.6896</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>64</v>
       </c>
@@ -911,7 +1070,7 @@
         <v>1.760256</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>32</v>
       </c>
@@ -923,7 +1082,7 @@
         <v>1.9466239999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>16</v>
       </c>
@@ -935,7 +1094,7 @@
         <v>3.5491839999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -947,7 +1106,7 @@
         <v>6.1685759999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -959,7 +1118,7 @@
         <v>11.681792</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -971,7 +1130,7 @@
         <v>23.165952000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -999,19 +1158,19 @@
       <selection activeCell="C16" sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.15234375" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1022,7 +1181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>8192</v>
       </c>
@@ -1034,7 +1193,7 @@
         <v>13.690799999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>4096</v>
       </c>
@@ -1046,7 +1205,7 @@
         <v>13.9114</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2048</v>
       </c>
@@ -1058,7 +1217,7 @@
         <v>10.3626</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1024</v>
       </c>
@@ -1070,7 +1229,7 @@
         <v>9.5637000000000008</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>512</v>
       </c>
@@ -1082,7 +1241,7 @@
         <v>10.2684</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>256</v>
       </c>
@@ -1094,7 +1253,7 @@
         <v>9.1998999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>128</v>
       </c>
@@ -1106,7 +1265,7 @@
         <v>9.9404000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>64</v>
       </c>
@@ -1118,7 +1277,7 @@
         <v>9.6659000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>32</v>
       </c>
@@ -1130,7 +1289,7 @@
         <v>11.526300000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>16</v>
       </c>
@@ -1142,7 +1301,7 @@
         <v>11.2035</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -1154,7 +1313,7 @@
         <v>88.712599999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>4</v>
       </c>
@@ -1166,7 +1325,7 @@
         <v>94.893299999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -1178,7 +1337,7 @@
         <v>92.698999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -1200,22 +1359,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC95609-F67B-4594-98F8-A14E88C480B6}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1226,23 +1385,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3">
         <v>196666368</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C16" si="0">B3/1000000</f>
+        <f t="shared" ref="C3:C13" si="0">B3/1000000</f>
         <v>196.66636800000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4">
         <v>99864576</v>
       </c>
       <c r="C4" s="5">
@@ -1250,11 +1409,11 @@
         <v>99.864576</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>51349504</v>
       </c>
       <c r="C5" s="5">
@@ -1262,11 +1421,11 @@
         <v>51.349504000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>8</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>26800128</v>
       </c>
       <c r="C6" s="5">
@@ -1274,11 +1433,11 @@
         <v>26.800128000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>16</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>14406656</v>
       </c>
       <c r="C7" s="5">
@@ -1286,11 +1445,11 @@
         <v>14.406656</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>32</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8">
         <v>8115200</v>
       </c>
       <c r="C8" s="5">
@@ -1298,11 +1457,11 @@
         <v>8.1151999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>64</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <v>8292256</v>
       </c>
       <c r="C9" s="5">
@@ -1310,11 +1469,11 @@
         <v>8.2922560000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>128</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10">
         <v>7934912</v>
       </c>
       <c r="C10" s="5">
@@ -1322,11 +1481,11 @@
         <v>7.9349119999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>256</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11">
         <v>7858880</v>
       </c>
       <c r="C11" s="5">
@@ -1334,11 +1493,11 @@
         <v>7.8588800000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>512</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12">
         <v>8005632</v>
       </c>
       <c r="C12" s="5">
@@ -1346,7 +1505,7 @@
         <v>8.0056320000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>1024</v>
       </c>
@@ -1357,21 +1516,6 @@
         <f t="shared" si="0"/>
         <v>9.1965439999999994</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1385,20 +1529,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6890EA-7ADB-45A9-995D-698702C32A08}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1409,11 +1553,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3">
         <v>283321300</v>
       </c>
       <c r="C3" s="5">
@@ -1421,11 +1565,11 @@
         <v>283.32130000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4">
         <v>60232900</v>
       </c>
       <c r="C4" s="5">
@@ -1433,11 +1577,11 @@
         <v>60.232900000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>55512400</v>
       </c>
       <c r="C5" s="5">
@@ -1445,11 +1589,11 @@
         <v>55.5124</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>8</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>62290400</v>
       </c>
       <c r="C6" s="5">
@@ -1457,11 +1601,11 @@
         <v>62.290399999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>16</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>61323000</v>
       </c>
       <c r="C7" s="5">
@@ -1469,11 +1613,11 @@
         <v>61.323</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>32</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8">
         <v>56893500</v>
       </c>
       <c r="C8" s="5">
@@ -1481,11 +1625,11 @@
         <v>56.893500000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>64</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <v>61801600</v>
       </c>
       <c r="C9" s="5">
@@ -1493,11 +1637,11 @@
         <v>61.801600000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>128</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10">
         <v>56696300</v>
       </c>
       <c r="C10" s="5">
@@ -1505,11 +1649,11 @@
         <v>56.696300000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>256</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11">
         <v>60720400</v>
       </c>
       <c r="C11" s="5">
@@ -1517,11 +1661,11 @@
         <v>60.720399999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>512</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12">
         <v>56412100</v>
       </c>
       <c r="C12" s="5">
@@ -1529,11 +1673,11 @@
         <v>56.412100000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1024</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13">
         <v>60637400</v>
       </c>
       <c r="C13" s="5">
@@ -1541,11 +1685,11 @@
         <v>60.6374</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2048</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14">
         <v>60195400</v>
       </c>
       <c r="C14" s="5">
@@ -1553,11 +1697,11 @@
         <v>60.195399999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>4096</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15">
         <v>63756400</v>
       </c>
       <c r="C15" s="5">
@@ -1565,7 +1709,7 @@
         <v>63.756399999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>8192</v>
       </c>
@@ -1586,23 +1730,204 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FADFD0-0DD5-4CD2-82AA-05F2D179E27B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94E5E92-CDF7-4262-A423-5D5420A21F9E}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>765068054</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C13" si="0">B3/1000000</f>
+        <v>765.06805399999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>417768737</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>417.76873699999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>388304107</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>388.30410699999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>312447357</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>312.44735700000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>274778778</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>274.77877799999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>255833374</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>255.83337399999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>256296844</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>256.29684400000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>128</v>
+      </c>
+      <c r="B10">
+        <v>251670822</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>251.67082199999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>256</v>
+      </c>
+      <c r="B11">
+        <v>247918945</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>247.91894500000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>512</v>
+      </c>
+      <c r="B12">
+        <v>249469345</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>249.469345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1024</v>
+      </c>
+      <c r="B13">
+        <v>250089126</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>250.08912599999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6166081-F680-4945-A233-9C5ED35C6F12}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q57" sqref="Q57"/>
+      <selection sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1613,138 +1938,574 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
-        <v>455514916</v>
+      <c r="B3">
+        <v>630908672</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:C16" si="0">B3/1000000</f>
-        <v>455.51491600000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <f t="shared" ref="C3:C15" si="0">B3/1000000</f>
+        <v>630.90867200000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="12">
-        <v>218381500</v>
+      <c r="B4">
+        <v>611998656</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>218.38149999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>611.99865599999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
-        <v>104174416</v>
+      <c r="B5">
+        <v>607148608</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>104.17441599999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>607.14860799999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>8</v>
       </c>
-      <c r="B6" s="12">
-        <v>57829916</v>
+      <c r="B6">
+        <v>595211744</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>57.829915999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>595.21174399999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>16</v>
       </c>
-      <c r="B7" s="12">
-        <v>41624083</v>
+      <c r="B7">
+        <v>577860896</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>41.624082999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>577.86089600000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>32</v>
       </c>
-      <c r="B8" s="12">
-        <v>41606000</v>
+      <c r="B8">
+        <v>510209344</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>41.606000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>510.20934399999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>64</v>
       </c>
-      <c r="B9" s="12">
-        <v>44916583</v>
+      <c r="B9">
+        <v>477060608</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>44.916583000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+        <v>477.060608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>128</v>
       </c>
-      <c r="B10" s="12">
-        <v>43037583</v>
+      <c r="B10">
+        <v>490210784</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>43.037582999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="6">
+        <v>490.21078399999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>256</v>
       </c>
-      <c r="B11" s="7">
-        <v>43720750</v>
-      </c>
-      <c r="C11" s="8">
-        <f t="shared" si="0"/>
-        <v>43.720750000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="B11">
+        <v>515590432</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>515.59043199999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>512</v>
+      </c>
+      <c r="B12">
+        <v>623929664</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>623.929664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1024</v>
+      </c>
+      <c r="B13">
+        <v>635226784</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>635.22678399999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>2048</v>
+      </c>
+      <c r="B14">
+        <v>641557568</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>641.55756799999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>4096</v>
+      </c>
+      <c r="B15">
+        <v>655323168</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>655.32316800000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC539A2-A6EF-4B23-8B45-E1C44FF8A08B}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>158829656</v>
+      </c>
+      <c r="C3" s="5">
+        <f>B3/1000000</f>
+        <v>158.829656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>72095045</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" ref="C4:C23" si="0">B4/1000000</f>
+        <v>72.095044999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>72066782</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>72.066782000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>72075274</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>72.075273999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>72099719</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>72.099718999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>72148342</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>72.148342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>72248282</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>72.248282000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>128</v>
+      </c>
+      <c r="B10">
+        <v>72165151</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>72.165150999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>256</v>
+      </c>
+      <c r="B11">
+        <v>72413761</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>72.413760999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>512</v>
+      </c>
+      <c r="B12">
+        <v>72253891</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>72.253890999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1024</v>
+      </c>
+      <c r="B13">
+        <v>72840745</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>72.840744999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>2048</v>
+      </c>
+      <c r="B14">
+        <v>73531388</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>73.531388000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>4096</v>
+      </c>
+      <c r="B15">
+        <v>76396424</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>76.396423999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>8192</v>
+      </c>
+      <c r="B16">
+        <v>77505718</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>77.505718000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF63803D-0400-4136-BFC0-6756CE9EBA8A}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2489191360</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C15" si="0">B3/1000000</f>
+        <v>2489.1913599999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1261411072</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>1261.4110720000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>643970624</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>643.97062400000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>334744192</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>334.744192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>177492192</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>177.49219199999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>98618240</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>98.61824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>63926720</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>63.926720000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>128</v>
+      </c>
+      <c r="B10">
+        <v>53653248</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>53.653247999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>256</v>
+      </c>
+      <c r="B11">
+        <v>47319072</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>47.319071999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>512</v>
+      </c>
+      <c r="B12">
+        <v>47428544</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>47.428544000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1024</v>
+      </c>
+      <c r="B13">
+        <v>66116608</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>66.116607999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
